--- a/biology/Botanique/Classification_de_la_végétation/Classification_de_la_végétation.xlsx
+++ b/biology/Botanique/Classification_de_la_végétation/Classification_de_la_végétation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Classification_de_la_v%C3%A9g%C3%A9tation</t>
+          <t>Classification_de_la_végétation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification de la végétation est le processus de classification et de cartographie de la végétation sur une surface de la surface de la terre. La classification de la végétation est souvent effectuée par des organismes d'État dans le cadre de la gestion de l'utilisation des terres, des ressources et de l'environnement. De nombreuses méthodes différentes de classification de la végétation ont été utilisées. En général, la classification structurelle utilisée par la foresterie pour la cartographie des ressources en bois a été remplacée par la cartographie des communautés floristiques pour la gestion de la biodiversité. Alors que les systèmes plus anciens basés sur la foresterie prenaient en compte des facteurs tels que la hauteur, les espèces et la densité de la canopée boisée, la cartographie floristique de la communauté met désormais l'accent sur des facteurs écologiques tels que le climat, le type de sol et les associations floristiques. La cartographie de la classification est désormais faite en général à l'aide d'un logiciel de système d'information géographique (SIG). 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Classification_de_la_v%C3%A9g%C3%A9tation</t>
+          <t>Classification_de_la_végétation</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,48 @@
           <t>Schémas de classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Voici quelques schémas de classification importants. 
-Köppen (1884)
-Bien que ce schéma soit en fait une classification climatique, il existe une relation profonde avec les études de la végétation : 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classification_de_la_végétation</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_de_la_v%C3%A9g%C3%A9tation</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Schémas de classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Köppen (1884)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bien que ce schéma soit en fait une classification climatique, il existe une relation profonde avec les études de la végétation : 
 Classe A
 Forêt tropicale humide (Af)
 Mousson tropicale (am)
@@ -533,9 +582,43 @@
 Classe e
 Toundra (ET)
 Calotte glaciaire (EF)
-Alpine (ET, EF)
-Wagner &amp; von Sydow (1888)
-Schéma de Wagner &amp; von Sydow (1888) : Vegetationsgürtel (Ceintures de végétation)[1] :  
+Alpine (ET, EF)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classification_de_la_végétation</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_de_la_v%C3%A9g%C3%A9tation</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Schémas de classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Wagner &amp; von Sydow (1888)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Schéma de Wagner &amp; von Sydow (1888) : Vegetationsgürtel (Ceintures de végétation) :  
 Tundren (toundra)
 Hochgebirgsflora (flore de montagne)
 Vegetationsarme Gebiete (Wüsten) (zones pauvres en végétation [déserts])
@@ -546,9 +629,43 @@
 in tropischen und subtropischen Gebieten (dans les régions tropicales et subtropicales)
 Grasland (prairie)
 Wald und Kulturland (forêts et terres cultivées)
-Urwald (jungle)
-Warming (1895, 1909)
-Warming (1895, 1909), classes oecologiques[2],[3] :   
+Urwald (jungle)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classification_de_la_végétation</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_de_la_v%C3%A9g%C3%A9tation</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Schémas de classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Warming (1895, 1909)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Warming (1895, 1909), classes oecologiques, :   
 A. Le sol (au sens le plus large) est très humide et l'eau est abondante pour la plante (au moins dans la classe 1), les formations sont donc plus ou moins hydrophiles:
 Classe 1  Hydrophytes (de formations dans l'eau).
 Classe 2.  Hélophytes (de formations dans les marais).
@@ -583,9 +700,43 @@
 Formations composées
 Formations mixtes
 Formations secondaires
-Sous-formations
-Schimper (1898, 1903)
-Schimper (1898, 1903), types de formations climatiques principales[4] :  
+Sous-formations</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classification_de_la_végétation</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_de_la_v%C3%A9g%C3%A9tation</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Schémas de classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Schimper (1898, 1903)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Schimper (1898, 1903), types de formations climatiques principales :  
 Bois, forêt, bois de brousse, bois d'arbustes
 Prairie, prairie (hygrophile ou tropophile), steppe (xérophile), savane (prairie xérophile contenant des arbres isolés)
 Désert (sec ou froid)
@@ -621,9 +772,43 @@
 Dans les zones tempérées
 Végétation aquatique
 Végétation marine
-Végétation d'eau douce
-Schimper &amp; Faber (1935)
-Types de formation[5],[6] : 
+Végétation d'eau douce</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classification_de_la_végétation</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_de_la_v%C3%A9g%C3%A9tation</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Schémas de classification</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Schimper &amp; Faber (1935)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Types de formation, : 
 1.  Pluie de forêt tropicale
 2  Forêt tropicale subtropicale
 3  Forêt de mousson
@@ -638,18 +823,86 @@
 12  Bruyère
 13  Désert sec
 14  Toundra et forêt froide
-15  Désert froid
-Ellenberg &amp; Mueller-Dombois (1967)
-Schéma d'Ellenberg et Mueller-Dombois (1967) : 
+15  Désert froid</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classification_de_la_végétation</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_de_la_v%C3%A9g%C3%A9tation</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Schémas de classification</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ellenberg &amp; Mueller-Dombois (1967)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Schéma d'Ellenberg et Mueller-Dombois (1967) : 
 Formation classe I. Forêts fermées
 Formation-classe II.  Woodlands
 Classe de formation III.  Fourrés (fourrés ou fourrés)
 Classe de formation IV.  Nain-gommage et communautés associées
 Formation classe V. Communautés herbacées terrestres
 Formation-classe VI.  Déserts et autres zones à peine végétalisées
-Classe de formation VII.  Formations de plantes aquatiques [7]
-Oliveira-Filho (2009, 2015)
-Une classification de la végétation avec six critères principaux ("attributs hiérarchiques", avec des catégories illustrées applicables principalement à la région néotropicale)[8],[9] :   
+Classe de formation VII.  Formations de plantes aquatiques </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classification_de_la_végétation</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_de_la_v%C3%A9g%C3%A9tation</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Schémas de classification</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Oliveira-Filho (2009, 2015)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Une classification de la végétation avec six critères principaux ("attributs hiérarchiques", avec des catégories illustrées applicables principalement à la région néotropicale), :   
 A. Physionomies de base de la végétation
 1.  Physionomies forestières
 2  Physionognomies des maquis
@@ -694,10 +947,44 @@
 Fluvial
 Plaine inondable
 Marécageux
-Marécageux
-Autres
-Autres régimes importants : Grisebach (1872)[10], Tansley et Chipp (1926)[11], Rübel (1930)[12], Burtt Davy (1938)[13], Beard (1944, 1955)[14],[15], André Aubréville (1956, 1957)[16],[17], Trochain (1955, 1957)[18],[19], Dansereau (1958)[20], Küchler (1967)[21]. 
-Dans les années soixante, AW Kuchler a coordonné un examen approfondi des cartes de la végétation de tous les continents, compilant la terminologie utilisée pour les types de végétation[22].
+Marécageux</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classification_de_la_végétation</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_de_la_v%C3%A9g%C3%A9tation</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Schémas de classification</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Autres régimes importants : Grisebach (1872), Tansley et Chipp (1926), Rübel (1930), Burtt Davy (1938), Beard (1944, 1955) André Aubréville (1956, 1957) Trochain (1955, 1957) Dansereau (1958), Küchler (1967). 
+Dans les années soixante, AW Kuchler a coordonné un examen approfondi des cartes de la végétation de tous les continents, compilant la terminologie utilisée pour les types de végétation.
 </t>
         </is>
       </c>
